--- a/public/sample_uploads/fund_ratios/account_entries.xlsx
+++ b/public/sample_uploads/fund_ratios/account_entries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{9ED88E01-ECE1-493D-A3E5-AA3EBADB82CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D383E496-6E3A-4F2B-BD6F-E323F745462C}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{9ED88E01-ECE1-493D-A3E5-AA3EBADB82CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{508291AD-3385-4247-A32B-F14F6BB0644E}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{1421E284-CBF3-4912-9765-3F7D17EF0783}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>Investor *</t>
   </si>
@@ -331,61 +331,25 @@
     <t>Amount (Folio Currency)</t>
   </si>
   <si>
-    <t>TSTF11</t>
-  </si>
-  <si>
-    <t>TSTF12</t>
+    <t>TSTF21</t>
+  </si>
+  <si>
+    <t>TSTF22</t>
   </si>
   <si>
     <t>Cash in Hand</t>
   </si>
   <si>
-    <t>Demo Fund 1</t>
-  </si>
-  <si>
-    <t>TSTF1</t>
-  </si>
-  <si>
-    <t>TSTF2</t>
+    <t>Demo Fund 2</t>
+  </si>
+  <si>
+    <t>TSTF3</t>
+  </si>
+  <si>
+    <t>TSTF4</t>
   </si>
   <si>
     <t>Portfolio FMV</t>
-  </si>
-  <si>
-    <t>TSTF7</t>
-  </si>
-  <si>
-    <t>TSTF8</t>
-  </si>
-  <si>
-    <t>TSTF9</t>
-  </si>
-  <si>
-    <t>TSTF10</t>
-  </si>
-  <si>
-    <t>TSTF13</t>
-  </si>
-  <si>
-    <t>TSTF14</t>
-  </si>
-  <si>
-    <t>TSTF15</t>
-  </si>
-  <si>
-    <t>TSTF16</t>
-  </si>
-  <si>
-    <t>TSTF17</t>
-  </si>
-  <si>
-    <t>TSTF18</t>
-  </si>
-  <si>
-    <t>TSTF19</t>
-  </si>
-  <si>
-    <t>TSTF110</t>
   </si>
   <si>
     <t>Portfolio Allocation</t>
@@ -507,7 +471,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -827,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD405DB-DFFA-46CC-B3D6-72FB3274A2C6}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:XFD7 A10:XFD13 A15:XFD16 A18:XFD19 A22:XFD25 A28:XFD31"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -881,13 +845,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="5">
@@ -930,20 +894,22 @@
       <c r="G3" s="7">
         <v>6666666.666666667</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="10">
+        <v>80321.28514056225</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="5">
@@ -987,7 +953,9 @@
       <c r="G5" s="7">
         <v>20000000</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="10">
+        <v>235294.11764705883</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>8</v>
@@ -1008,7 +976,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="8">
-        <v>50000000</v>
+        <v>10000000</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>8</v>
@@ -1028,33 +996,33 @@
         <v>14</v>
       </c>
       <c r="G7" s="8">
-        <v>150000000</v>
+        <v>30000000</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="5">
         <v>45382</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="8">
-        <v>268333333.33333331</v>
+        <v>256666666.66666666</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>9</v>
@@ -1074,39 +1042,42 @@
         <v>45382</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="8">
-        <v>536666666.66666669</v>
+        <v>513333333.33333337</v>
+      </c>
+      <c r="H9" s="10">
+        <v>6184738.9558232939</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="5">
         <v>45747</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="8">
-        <v>338333333.33333331</v>
+        <v>326666666.66666663</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>9</v>
@@ -1126,847 +1097,18 @@
         <v>45747</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="8">
-        <v>676666666.66666675</v>
+        <v>653333333.33333337</v>
+      </c>
+      <c r="H11" s="10">
+        <v>7686274.5098039219</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="5">
-        <v>45382</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="7">
-        <v>3333333.333333333</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="5">
-        <v>45382</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="7">
-        <v>6666666.666666667</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="5">
-        <v>45382</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="7">
-        <v>3333333.333333333</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="5">
-        <v>45382</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="7">
-        <v>6666666.666666667</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="5">
-        <v>45382</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="7">
-        <v>3333333.333333333</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="5">
-        <v>45382</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="7">
-        <v>6666666.666666667</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="5">
-        <v>45382</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="7">
-        <v>3333333.333333333</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="5">
-        <v>45382</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="7">
-        <v>6666666.666666667</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="7">
-        <v>20000000</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="7">
-        <v>20000000</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="7">
-        <v>20000000</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="7">
-        <v>20000000</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="5">
-        <v>45382</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="8">
-        <v>268333333.33333331</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="5">
-        <v>45382</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="8">
-        <v>536666666.66666669</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="5">
-        <v>45382</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="8">
-        <v>268333333.33333331</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="5">
-        <v>45382</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="8">
-        <v>536666666.66666669</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="5">
-        <v>45382</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="8">
-        <v>268333333.33333331</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="5">
-        <v>45382</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="8">
-        <v>536666666.66666669</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="5">
-        <v>45382</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="8">
-        <v>268333333.33333331</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="5">
-        <v>45382</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="8">
-        <v>536666666.66666669</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="8">
-        <v>338333333.33333331</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="8">
-        <v>676666666.66666675</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="8">
-        <v>338333333.33333331</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="8">
-        <v>676666666.66666675</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="8">
-        <v>338333333.33333331</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="8">
-        <v>676666666.66666675</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="8">
-        <v>338333333.33333331</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="8">
-        <v>676666666.66666675</v>
-      </c>
-      <c r="J43" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/public/sample_uploads/fund_ratios/account_entries.xlsx
+++ b/public/sample_uploads/fund_ratios/account_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\fund_ratios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{9ED88E01-ECE1-493D-A3E5-AA3EBADB82CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{508291AD-3385-4247-A32B-F14F6BB0644E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB85834-0524-4AAF-BFCF-9857EF438FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{1421E284-CBF3-4912-9765-3F7D17EF0783}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{1421E284-CBF3-4912-9765-3F7D17EF0783}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="22">
   <si>
     <t>Investor *</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>Portfolio Allocation</t>
+  </si>
+  <si>
+    <t>Parent Type</t>
+  </si>
+  <si>
+    <t>Parent Id</t>
   </si>
 </sst>
 </file>
@@ -791,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD405DB-DFFA-46CC-B3D6-72FB3274A2C6}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -812,7 +818,7 @@
     <col min="11" max="11" width="13.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,8 +849,14 @@
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -872,7 +884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -902,7 +914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -931,7 +943,7 @@
       </c>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -962,7 +974,7 @@
       </c>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -982,7 +994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1002,7 +1014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1028,7 +1040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1057,7 +1069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1083,7 +1095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
